--- a/excel_with_subclasses/without_zeros/road_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/road_with_count_without_zeros.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="road" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highway" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="controlled_access_highway" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="interchange" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -411,7 +412,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -431,9 +432,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1566</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -451,9 +449,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1565</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -471,9 +466,6 @@
           <t>Q3352369_пешеходная дорожка</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1489</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -491,9 +483,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1278</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -511,9 +500,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1237</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -531,9 +517,6 @@
           <t>Q1716124_дорога национального значения</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1230</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -551,9 +534,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1207</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -571,9 +551,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1143</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -591,9 +568,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>919</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -611,9 +585,6 @@
           <t>Q1716124_дорога национального значения</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>904</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -631,9 +602,6 @@
           <t>Q926271_highways in Poland</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>855</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -651,9 +619,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>706</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -671,9 +636,6 @@
           <t>Q1788582_шоссе уровня штата</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>514</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -691,9 +653,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>501</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -711,9 +670,6 @@
           <t>Q1777138_гоночная трасса</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>497</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -731,9 +687,6 @@
           <t>Q1716124_дорога национального значения,Q2145163_магистральная дорога</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>462</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -751,9 +704,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>336</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -771,9 +721,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>290</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -791,9 +738,6 @@
           <t>Q52153638_national road of Estonia</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>290</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -811,9 +755,6 @@
           <t>Q1777138_гоночная трасса</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>288</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -831,9 +772,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>248</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -851,9 +789,6 @@
           <t>Q285783_перекрёсток</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>204</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -871,9 +806,6 @@
           <t>Q1777138_гоночная трасса</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>198</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -891,9 +823,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>193</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -911,9 +840,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>189</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -931,9 +857,6 @@
           <t>Q6857854_military road</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>181</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -951,9 +874,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>166</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -971,9 +891,6 @@
           <t>Q159184_автодорога</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>151</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -991,9 +908,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>133</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1011,9 +925,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>132</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1031,9 +942,6 @@
           <t>Q1716124_дорога национального значения</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>115</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1051,9 +959,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>101</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1071,9 +976,6 @@
           <t>Q1716124_дорога национального значения</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>98</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1091,9 +993,6 @@
           <t>Q52153638_national road of Estonia</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1111,9 +1010,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1131,9 +1027,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1151,9 +1044,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1171,9 +1061,6 @@
           <t>Q2338524_автодром</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1191,9 +1078,6 @@
           <t>Q285783_перекрёсток</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1211,9 +1095,6 @@
           <t>Q1716124_дорога национального значения</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>61</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1231,9 +1112,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1251,9 +1129,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1271,9 +1146,6 @@
           <t>Q1478459_municipal road</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>51</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1291,9 +1163,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1311,9 +1180,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1331,9 +1197,6 @@
           <t>Q830528_велодром</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1351,9 +1214,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1368,11 +1228,8 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>42</v>
+          <t>Q55119611_autonomous road</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1391,9 +1248,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1411,9 +1265,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1431,9 +1282,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1451,9 +1299,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1471,9 +1316,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1491,9 +1333,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1511,9 +1350,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1531,9 +1367,6 @@
           <t>Q1406331_Туристский маршрут</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1551,9 +1384,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1571,9 +1401,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1591,9 +1418,6 @@
           <t>Q2145163_магистральная дорога</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1611,9 +1435,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1631,9 +1452,6 @@
           <t>Q1716124_дорога национального значения</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1651,9 +1469,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1671,9 +1486,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1691,9 +1503,6 @@
           <t>Q11822917_ипподром</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1711,9 +1520,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1731,9 +1537,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1748,11 +1551,8 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>20</v>
+          <t>Q55119611_autonomous road</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -1771,9 +1571,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1791,9 +1588,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1811,9 +1605,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1831,9 +1622,6 @@
           <t>Q700143_Грунтовая дорога,Q12046227_agricultural road</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1848,11 +1636,8 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>18</v>
+          <t>Q55119611_autonomous road</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -1871,9 +1656,6 @@
           <t>Q1777138_гоночная трасса</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1891,9 +1673,6 @@
           <t>Q30106829_proposed road</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1911,9 +1690,6 @@
           <t>Q12046227_agricultural road</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1931,9 +1707,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1951,9 +1724,6 @@
           <t>Q7159158_Pedestrian separation structure</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1971,9 +1741,6 @@
           <t>Q57448730_abandoned proposed road</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1991,9 +1758,6 @@
           <t>Q1406331_Туристский маршрут</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2011,9 +1775,6 @@
           <t>Q3352369_пешеходная дорожка</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2031,9 +1792,6 @@
           <t>Q1777138_гоночная трасса</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2051,9 +1809,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2071,9 +1826,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2091,9 +1843,6 @@
           <t>Q285783_перекрёсток</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2111,9 +1860,6 @@
           <t>Q52153638_national road of Estonia</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2131,9 +1877,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2151,9 +1894,6 @@
           <t>Q11822917_ипподром</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2171,9 +1911,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2191,68 +1928,56 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q184949</t>
+          <t>Q23011975</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>гипподром</t>
+          <t>дорога с покрытием вне населённых пунктов</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q11822917_ипподром</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>11</v>
+          <t>Q1478459_municipal road</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Q1716124</t>
+          <t>Q184949</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>дорога национального значения</t>
+          <t>гипподром</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Q34442_дорога</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>10</v>
+          <t>Q11822917_ипподром</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Q23011975</t>
+          <t>Q1716124</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>дорога с покрытием вне населённых пунктов</t>
+          <t>дорога национального значения</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q1478459_municipal road</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>10</v>
+          <t>Q34442_дорога</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -2271,9 +1996,6 @@
           <t>Q7860962_road type</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2291,9 +2013,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2311,9 +2030,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2331,9 +2047,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2351,9 +2064,6 @@
           <t>Q1716124_дорога национального значения</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2371,9 +2081,6 @@
           <t>Q800517_National Scenic Byway</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2391,9 +2098,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2411,9 +2115,6 @@
           <t>Q896009_Landesstraße</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2431,9 +2132,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2451,9 +2149,6 @@
           <t>Q2338524_автодром</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2471,9 +2166,6 @@
           <t>Q1525_круговой перекрёсток,Q1984996_Одноуровневое пересечение</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2491,9 +2183,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2511,9 +2200,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2531,9 +2217,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2551,9 +2234,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2571,9 +2251,6 @@
           <t>Q2145163_магистральная дорога</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2591,9 +2268,6 @@
           <t>Q11672839_arterial high-standard highway</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2611,9 +2285,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2631,9 +2302,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2651,9 +2319,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2671,9 +2336,6 @@
           <t>Q12046227_agricultural road</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2691,9 +2353,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2711,9 +2370,6 @@
           <t>Q1525_круговой перекрёсток</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2731,9 +2387,6 @@
           <t>Q194029_римские дороги</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2743,16 +2396,13 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>carretera autonómica</t>
+          <t>autonomous road</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>Q34442_дорога</t>
         </is>
-      </c>
-      <c r="D118" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -2771,9 +2421,6 @@
           <t>Q34442_дорога,Q700143_Грунтовая дорога</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2791,9 +2438,6 @@
           <t>Q10405668_Q10405668</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2811,9 +2455,6 @@
           <t>Q2338524_автодром</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2831,9 +2472,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2851,9 +2489,6 @@
           <t>Q18019452_A road</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2871,9 +2506,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2891,9 +2523,6 @@
           <t>Q12743_брод,Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2911,9 +2540,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2931,9 +2557,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2951,68 +2574,56 @@
           <t>Q285783_перекрёсток</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Q2251535</t>
+          <t>Q7371728</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>driveway</t>
+          <t>roving bridge</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Q703941_private road</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>3</v>
+          <t>Q1068842_пешеходный мост</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Q93899879</t>
+          <t>Q2251535</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>regional road</t>
+          <t>driveway</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Q34442_дорога</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>3</v>
+          <t>Q703941_private road</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Q7371728</t>
+          <t>Q93899879</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>roving bridge</t>
+          <t>regional road</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Q1068842_пешеходный мост</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>3</v>
+          <t>Q34442_дорога</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -3031,9 +2642,6 @@
           <t>Q1406331_Туристский маршрут</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3051,9 +2659,6 @@
           <t>Q221722_велосипедная дорожка</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3071,9 +2676,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3091,9 +2693,6 @@
           <t>Q285783_перекрёсток</t>
         </is>
       </c>
-      <c r="D135" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3111,9 +2710,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D136" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3131,9 +2727,6 @@
           <t>Q28943989_provincial road</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3151,9 +2744,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3171,9 +2761,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D139" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3191,9 +2778,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3211,9 +2795,6 @@
           <t>Q221722_велосипедная дорожка</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3228,11 +2809,8 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica,Q55119867_carretera provincial</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>2</v>
+          <t>Q55119611_autonomous road,Q55119867_carretera provincial</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -3251,9 +2829,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3271,9 +2846,6 @@
           <t>Q21200006_Велотрасса</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3291,9 +2863,6 @@
           <t>Q1068842_пешеходный мост</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3311,9 +2880,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3331,9 +2897,6 @@
           <t>Q1779930_Объездное шоссе</t>
         </is>
       </c>
-      <c r="D147" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3351,9 +2914,6 @@
           <t>Q1771902_норвежская уездная дорога</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3371,9 +2931,6 @@
           <t>Q18390604_road curve</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3391,9 +2948,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3411,9 +2965,6 @@
           <t>Q15238111_дорога в Финляндии</t>
         </is>
       </c>
-      <c r="D151" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3431,9 +2982,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3451,9 +2999,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D153" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3471,9 +3016,6 @@
           <t>Q34442_дорога,Q1716124_дорога национального значения,Q2145163_магистральная дорога</t>
         </is>
       </c>
-      <c r="D154" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3491,9 +3033,6 @@
           <t>Q7574863_special route</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3511,9 +3050,6 @@
           <t>Q194029_римские дороги</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3531,9 +3067,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D157" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3551,9 +3084,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D158" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3571,9 +3101,6 @@
           <t>Q700143_Грунтовая дорога,Q12046227_agricultural road</t>
         </is>
       </c>
-      <c r="D159" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3591,9 +3118,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D160" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3611,9 +3135,6 @@
           <t>Q7362322_Roman road</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3631,9 +3152,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D162" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3651,9 +3169,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D163" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3671,9 +3186,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3691,9 +3203,6 @@
           <t>Q285783_перекрёсток</t>
         </is>
       </c>
-      <c r="D165" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3711,9 +3220,6 @@
           <t>Q7574863_special route</t>
         </is>
       </c>
-      <c r="D166" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3731,9 +3237,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D167" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3751,9 +3254,6 @@
           <t>Q34442_дорога</t>
         </is>
       </c>
-      <c r="D168" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3771,9 +3271,6 @@
           <t>Q2338524_автодром</t>
         </is>
       </c>
-      <c r="D169" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3791,9 +3288,6 @@
           <t>Q285783_перекрёсток</t>
         </is>
       </c>
-      <c r="D170" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3810,9 +3304,6 @@
         <is>
           <t>Q34442_дорога</t>
         </is>
-      </c>
-      <c r="D171" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3343,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -3872,9 +3363,6 @@
           <t>Q269949_шоссе</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3892,9 +3380,6 @@
           <t>Q269949_шоссе</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3912,9 +3397,6 @@
           <t>Q269949_шоссе</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3932,9 +3414,6 @@
           <t>Q269949_шоссе</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3952,9 +3431,6 @@
           <t>Q269949_шоссе</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3971,9 +3447,6 @@
         <is>
           <t>Q269949_шоссе</t>
         </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4013,7 +3486,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -4033,9 +3506,6 @@
           <t>Q46622_автомагистраль</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4053,9 +3523,6 @@
           <t>Q46622_автомагистраль</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4073,9 +3540,6 @@
           <t>Q46622_автомагистраль</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4093,9 +3557,6 @@
           <t>Q46622_автомагистраль</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4113,9 +3574,6 @@
           <t>Q46622_автомагистраль</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4133,9 +3591,6 @@
           <t>Q46622_автомагистраль</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4153,9 +3608,6 @@
           <t>Q46622_автомагистраль</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4173,9 +3625,6 @@
           <t>Q46622_автомагистраль</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4193,9 +3642,6 @@
           <t>Q46622_автомагистраль</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4213,9 +3659,155 @@
           <t>Q46622_автомагистраль</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>subclass</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>subclasslabel</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>signifance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q11313284</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Smart interchange</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q628131</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Diamond interchange</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q1861288</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>incomplete interchange</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q11075207</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cloverleaf interchange</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q5253909</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>stack interchange</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q11347628</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
